--- a/data/outputs/能源化工元源数据文件_elsevier/7Biofuels Bioproducts & Biorefining-Biofpr.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/7Biofuels Bioproducts & Biorefining-Biofpr.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS116"/>
+  <dimension ref="A1:BU116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -924,6 +934,12 @@
         <is>
           <t>2-s2.0-84939238037</t>
         </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1100,6 +1116,12 @@
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1275,6 +1297,12 @@
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1450,6 +1478,12 @@
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1625,6 +1659,12 @@
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1800,6 +1840,12 @@
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1975,6 +2021,12 @@
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2150,6 +2202,12 @@
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2325,6 +2383,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2514,6 +2578,12 @@
           <t>2-s2.0-84954311355</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2731,6 +2801,12 @@
           <t>2-s2.0-84954322988</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2952,6 +3028,12 @@
           <t>2-s2.0-84954383620</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3171,6 +3253,12 @@
           <t>2-s2.0-84954379742</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3386,6 +3474,12 @@
           <t>2-s2.0-84954310266</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3611,6 +3705,12 @@
           <t>2-s2.0-84954399365</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3830,6 +3930,12 @@
           <t>2-s2.0-84954382092</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4052,6 +4158,12 @@
         <is>
           <t>2-s2.0-84954388045</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -4256,6 +4368,12 @@
           <t>2-s2.0-84954374210</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4471,6 +4589,12 @@
           <t>2-s2.0-84954400722</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4696,6 +4820,12 @@
           <t>2-s2.0-84954369759</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4921,6 +5051,12 @@
           <t>2-s2.0-84954370392</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5135,6 +5271,12 @@
         <is>
           <t>2-s2.0-84954385953</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -5330,6 +5472,12 @@
         <is>
           <t>2-s2.0-84941639666</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -5506,6 +5654,12 @@
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5681,6 +5835,12 @@
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5856,6 +6016,12 @@
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6031,6 +6197,12 @@
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6206,6 +6378,12 @@
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6381,6 +6559,12 @@
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6556,6 +6740,12 @@
       <c r="BQ31" t="inlineStr"/>
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6731,6 +6921,12 @@
       <c r="BQ32" t="inlineStr"/>
       <c r="BR32" t="inlineStr"/>
       <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6906,6 +7102,12 @@
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="inlineStr"/>
       <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7133,6 +7335,12 @@
           <t>2-s2.0-84941737046</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7346,6 +7554,12 @@
           <t>2-s2.0-84941742359</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7561,6 +7775,12 @@
           <t>2-s2.0-84941743159</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7784,6 +8004,12 @@
           <t>2-s2.0-84941745001</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7999,6 +8225,12 @@
           <t>2-s2.0-84941737405</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8222,6 +8454,12 @@
           <t>2-s2.0-84941738367</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8436,6 +8674,12 @@
         <is>
           <t>2-s2.0-84941734292</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -8640,6 +8884,12 @@
           <t>2-s2.0-84941735002</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8867,6 +9117,12 @@
           <t>2-s2.0-84941735953</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9084,6 +9340,12 @@
           <t>2-s2.0-84941740491</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9298,6 +9560,12 @@
         <is>
           <t>2-s2.0-84941732286</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -9507,6 +9775,12 @@
         <is>
           <t>2-s2.0-84941747442</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -9702,6 +9976,12 @@
         <is>
           <t>2-s2.0-84936952523</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9878,6 +10158,12 @@
       <c r="BQ47" t="inlineStr"/>
       <c r="BR47" t="inlineStr"/>
       <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10053,6 +10339,12 @@
       <c r="BQ48" t="inlineStr"/>
       <c r="BR48" t="inlineStr"/>
       <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10236,6 +10528,12 @@
       <c r="BQ49" t="inlineStr"/>
       <c r="BR49" t="inlineStr"/>
       <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10411,6 +10709,12 @@
       <c r="BQ50" t="inlineStr"/>
       <c r="BR50" t="inlineStr"/>
       <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10586,6 +10890,12 @@
       <c r="BQ51" t="inlineStr"/>
       <c r="BR51" t="inlineStr"/>
       <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10761,6 +11071,12 @@
       <c r="BQ52" t="inlineStr"/>
       <c r="BR52" t="inlineStr"/>
       <c r="BS52" t="inlineStr"/>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10936,6 +11252,12 @@
       <c r="BQ53" t="inlineStr"/>
       <c r="BR53" t="inlineStr"/>
       <c r="BS53" t="inlineStr"/>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11111,6 +11433,12 @@
       <c r="BQ54" t="inlineStr"/>
       <c r="BR54" t="inlineStr"/>
       <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11286,6 +11614,12 @@
       <c r="BQ55" t="inlineStr"/>
       <c r="BR55" t="inlineStr"/>
       <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11473,6 +11807,12 @@
       <c r="BQ56" t="inlineStr"/>
       <c r="BR56" t="inlineStr"/>
       <c r="BS56" t="inlineStr"/>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11680,6 +12020,12 @@
           <t>2-s2.0-84936985426</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11903,6 +12249,12 @@
           <t>2-s2.0-84936986401</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12117,6 +12469,12 @@
         <is>
           <t>2-s2.0-84936985987</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -12327,6 +12685,12 @@
           <t>2-s2.0-84936985862</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12534,6 +12898,12 @@
           <t>2-s2.0-84936950989</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12751,6 +13121,12 @@
           <t>2-s2.0-84936986025</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12976,6 +13352,12 @@
           <t>2-s2.0-84936986037</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13192,6 +13574,12 @@
         <is>
           <t>2-s2.0-84936985138</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="65">
@@ -13368,6 +13756,12 @@
       <c r="BQ65" t="inlineStr"/>
       <c r="BR65" t="inlineStr"/>
       <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13543,6 +13937,12 @@
       <c r="BQ66" t="inlineStr"/>
       <c r="BR66" t="inlineStr"/>
       <c r="BS66" t="inlineStr"/>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13718,6 +14118,12 @@
       <c r="BQ67" t="inlineStr"/>
       <c r="BR67" t="inlineStr"/>
       <c r="BS67" t="inlineStr"/>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13893,6 +14299,12 @@
       <c r="BQ68" t="inlineStr"/>
       <c r="BR68" t="inlineStr"/>
       <c r="BS68" t="inlineStr"/>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14068,6 +14480,12 @@
       <c r="BQ69" t="inlineStr"/>
       <c r="BR69" t="inlineStr"/>
       <c r="BS69" t="inlineStr"/>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14243,6 +14661,12 @@
       <c r="BQ70" t="inlineStr"/>
       <c r="BR70" t="inlineStr"/>
       <c r="BS70" t="inlineStr"/>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14418,6 +14842,12 @@
       <c r="BQ71" t="inlineStr"/>
       <c r="BR71" t="inlineStr"/>
       <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14593,6 +15023,12 @@
       <c r="BQ72" t="inlineStr"/>
       <c r="BR72" t="inlineStr"/>
       <c r="BS72" t="inlineStr"/>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14768,6 +15204,12 @@
       <c r="BQ73" t="inlineStr"/>
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14986,6 +15428,12 @@
         <is>
           <t>2-s2.0-84928421793</t>
         </is>
+      </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -15194,6 +15642,12 @@
           <t>2-s2.0-84928383519</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15417,6 +15871,12 @@
           <t>2-s2.0-84928391315</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15632,6 +16092,12 @@
           <t>2-s2.0-84928388999</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15843,6 +16309,12 @@
           <t>2-s2.0-84928409719</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16068,6 +16540,12 @@
           <t>2-s2.0-84928436007</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16288,6 +16766,12 @@
         <is>
           <t>2-s2.0-84928422722</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -16495,6 +16979,12 @@
         <is>
           <t>2-s2.0-84924664316</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -16671,6 +17161,12 @@
       <c r="BQ82" t="inlineStr"/>
       <c r="BR82" t="inlineStr"/>
       <c r="BS82" t="inlineStr"/>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -16846,6 +17342,12 @@
       <c r="BQ83" t="inlineStr"/>
       <c r="BR83" t="inlineStr"/>
       <c r="BS83" t="inlineStr"/>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17021,6 +17523,12 @@
       <c r="BQ84" t="inlineStr"/>
       <c r="BR84" t="inlineStr"/>
       <c r="BS84" t="inlineStr"/>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17196,6 +17704,12 @@
       <c r="BQ85" t="inlineStr"/>
       <c r="BR85" t="inlineStr"/>
       <c r="BS85" t="inlineStr"/>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17371,6 +17885,12 @@
       <c r="BQ86" t="inlineStr"/>
       <c r="BR86" t="inlineStr"/>
       <c r="BS86" t="inlineStr"/>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -17546,6 +18066,12 @@
       <c r="BQ87" t="inlineStr"/>
       <c r="BR87" t="inlineStr"/>
       <c r="BS87" t="inlineStr"/>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -17721,6 +18247,12 @@
       <c r="BQ88" t="inlineStr"/>
       <c r="BR88" t="inlineStr"/>
       <c r="BS88" t="inlineStr"/>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -17896,6 +18428,12 @@
       <c r="BQ89" t="inlineStr"/>
       <c r="BR89" t="inlineStr"/>
       <c r="BS89" t="inlineStr"/>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18071,6 +18609,12 @@
       <c r="BQ90" t="inlineStr"/>
       <c r="BR90" t="inlineStr"/>
       <c r="BS90" t="inlineStr"/>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -18294,6 +18838,12 @@
           <t>2-s2.0-84924767966</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -18517,6 +19067,12 @@
           <t>2-s2.0-84924720368</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -18740,6 +19296,12 @@
           <t>2-s2.0-84924747287</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -18955,6 +19517,12 @@
           <t>2-s2.0-84924811181</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19178,6 +19746,12 @@
           <t>2-s2.0-84924815073</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -19397,6 +19971,12 @@
           <t>2-s2.0-84924740425</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -19620,6 +20200,12 @@
           <t>2-s2.0-84924761818</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -19842,6 +20428,12 @@
         <is>
           <t>2-s2.0-84924710076</t>
         </is>
+      </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -20039,6 +20631,12 @@
         <is>
           <t>2-s2.0-84920935188</t>
         </is>
+      </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -20215,6 +20813,12 @@
       <c r="BQ100" t="inlineStr"/>
       <c r="BR100" t="inlineStr"/>
       <c r="BS100" t="inlineStr"/>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -20390,6 +20994,12 @@
       <c r="BQ101" t="inlineStr"/>
       <c r="BR101" t="inlineStr"/>
       <c r="BS101" t="inlineStr"/>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -20565,6 +21175,12 @@
       <c r="BQ102" t="inlineStr"/>
       <c r="BR102" t="inlineStr"/>
       <c r="BS102" t="inlineStr"/>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -20740,6 +21356,12 @@
       <c r="BQ103" t="inlineStr"/>
       <c r="BR103" t="inlineStr"/>
       <c r="BS103" t="inlineStr"/>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -20915,6 +21537,12 @@
       <c r="BQ104" t="inlineStr"/>
       <c r="BR104" t="inlineStr"/>
       <c r="BS104" t="inlineStr"/>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21090,6 +21718,12 @@
       <c r="BQ105" t="inlineStr"/>
       <c r="BR105" t="inlineStr"/>
       <c r="BS105" t="inlineStr"/>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -21265,6 +21899,12 @@
       <c r="BQ106" t="inlineStr"/>
       <c r="BR106" t="inlineStr"/>
       <c r="BS106" t="inlineStr"/>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -21440,6 +22080,12 @@
       <c r="BQ107" t="inlineStr"/>
       <c r="BR107" t="inlineStr"/>
       <c r="BS107" t="inlineStr"/>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -21615,6 +22261,12 @@
       <c r="BQ108" t="inlineStr"/>
       <c r="BR108" t="inlineStr"/>
       <c r="BS108" t="inlineStr"/>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -21842,6 +22494,12 @@
           <t>2-s2.0-84920999108</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -22059,6 +22717,12 @@
           <t>2-s2.0-84920999522</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -22274,6 +22938,12 @@
           <t>2-s2.0-84920943011</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -22489,6 +23159,12 @@
           <t>2-s2.0-84940257548</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -22706,6 +23382,12 @@
           <t>2-s2.0-84920942185</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -22921,6 +23603,12 @@
           <t>2-s2.0-84920868948</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -23140,6 +23828,12 @@
           <t>2-s2.0-84920895755</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -23365,6 +24059,12 @@
           <t>2-s2.0-84920945734</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
